--- a/jiekou-python3-master/test_case_data/case.xlsx
+++ b/jiekou-python3-master/test_case_data/case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yitliu\Downloads\jiekou-python3-master\test_case_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yitliu\Desktop\hello-word\jiekou-python3-master\test_case_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5939F3-2E26-4FEB-9C77-6E07CBC59F81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D481F0-1BB7-4668-ABD0-844D3022C6A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
